--- a/1_data_processing/2024_02 Kelly all samples.xlsx
+++ b/1_data_processing/2024_02 Kelly all samples.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10752_S55_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10752_S55_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C2">
@@ -599,7 +599,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>LV_1</t>
+          <t>LV1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -680,42 +680,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNA_P2041_S37</t>
+          <t>RNA_P557_S33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10619_S37_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_077_S33_quant/quant.sf</t>
         </is>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RNA_P2041_10619_S37_L003</t>
+          <t>RNA_P557_077_S33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="G3">
-        <v>10268</v>
+        <v>7693</v>
       </c>
       <c r="H3" s="2">
-        <v>44433</v>
+        <v>43356</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Kelly LV.1 Nx</t>
-        </is>
+          <t>Kelly CRISPR Hif LV1 P7 Nx 24h</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>830.48</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -729,12 +732,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P7</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>LV_1</t>
+          <t>LV1</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -744,71 +752,35 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>RNA_10754</t>
+          <t>RNA_77</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Katharina</t>
         </is>
       </c>
       <c r="U3" s="2">
-        <v>44433</v>
+        <v>43356</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Simon_4</t>
-        </is>
-      </c>
-      <c r="X3">
-        <v>10754</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>del_Hif1a1.3</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>del_Hif1a1.3</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>RNA_11</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S41</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S37</t>
-        </is>
-      </c>
-      <c r="AD3">
-        <v>37</v>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S37</t>
+          <t>Katharina_1</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -820,42 +792,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNA_P2041_S42</t>
+          <t>RNA_P557_S37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10635_S42_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_081_S37_quant/quant.sf</t>
         </is>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RNA_P2041_10635_S42_L003</t>
+          <t>RNA_P557_081_S37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="G4">
-        <v>10292</v>
+        <v>7699</v>
       </c>
       <c r="H4" s="2">
-        <v>44435</v>
+        <v>43356</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Kelly LV.1 Nx</t>
-        </is>
+          <t>Kelly CRISPR Hif LV1 P7 Nx 24h</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>603.48</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -869,12 +844,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P7</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>LV_1</t>
+          <t>LV1</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -884,71 +864,35 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>RNA_10635</t>
+          <t>RNA_81</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Katharina</t>
         </is>
       </c>
       <c r="U4" s="2">
-        <v>44435</v>
+        <v>43356</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Simon_5</t>
-        </is>
-      </c>
-      <c r="X4">
-        <v>10635</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>delHif1b6.1</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>delHif1b6.1</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>RNA_25</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S46</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S42</t>
-        </is>
-      </c>
-      <c r="AD4">
-        <v>42</v>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S42</t>
+          <t>Katharina_1</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -960,20 +904,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNA_P557_S33</t>
+          <t>RNA_P557_S41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_077_S33_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_085_S41_quant/quant.sf</t>
         </is>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RNA_P557_077_S33</t>
+          <t>RNA_P557_085_S41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -987,18 +931,18 @@
         </is>
       </c>
       <c r="G5">
-        <v>7693</v>
+        <v>7705</v>
       </c>
       <c r="H5" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kelly CRISPR Hif LV1 P7 Nx 24h</t>
+          <t>Kelly CRISPR Hif LV1 P8 Nx 24h</t>
         </is>
       </c>
       <c r="J5">
-        <v>830.48</v>
+        <v>807.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1017,7 +961,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1037,12 +981,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>RNA_77</t>
+          <t>RNA_85</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1051,16 +995,16 @@
         </is>
       </c>
       <c r="U5" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Katharina_1</t>
+          <t>Katharina_2</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1072,20 +1016,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNA_P557_S37</t>
+          <t>RNA_P557_S45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_081_S37_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_089_S45_quant/quant.sf</t>
         </is>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RNA_P557_081_S37</t>
+          <t>RNA_P557_089_S45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1099,18 +1043,18 @@
         </is>
       </c>
       <c r="G6">
-        <v>7699</v>
+        <v>7711</v>
       </c>
       <c r="H6" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kelly CRISPR Hif LV1 P7 Nx 24h</t>
+          <t>Kelly CRISPR Hif LV1 P8 Nx 24h</t>
         </is>
       </c>
       <c r="J6">
-        <v>603.48</v>
+        <v>694.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1129,7 +1073,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1149,12 +1093,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>RNA_81</t>
+          <t>RNA_89</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1163,16 +1107,16 @@
         </is>
       </c>
       <c r="U6" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Katharina_1</t>
+          <t>Katharina_2</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1184,45 +1128,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNA_P557_S41</t>
+          <t>RNA_P2041_S37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_085_S41_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10619_S37_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RNA_P557_085_S41</t>
+          <t>RNA_P2041_10619_S37_L003</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P557</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="G7">
-        <v>7705</v>
+        <v>10268</v>
       </c>
       <c r="H7" s="2">
-        <v>43357</v>
+        <v>44433</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Kelly CRISPR Hif LV1 P8 Nx 24h</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>807.66</v>
+          <t>Kelly LV.1 Nx</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1236,12 +1177,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P557</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>P8</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1256,7 +1192,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1266,25 +1202,61 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>RNA_85</t>
+          <t>RNA_10754</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Katharina</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="U7" s="2">
-        <v>43357</v>
+        <v>44433</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Katharina_2</t>
+          <t>Simon_4</t>
+        </is>
+      </c>
+      <c r="X7">
+        <v>10754</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>del_Hif1a1.3</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>del_Hif1a1.3</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>RNA_11</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S41</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S37</t>
+        </is>
+      </c>
+      <c r="AD7">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S37</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1296,45 +1268,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNA_P557_S45</t>
+          <t>RNA_P2041_S42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_089_S45_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10635_S42_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RNA_P557_089_S45</t>
+          <t>RNA_P2041_10635_S42_L003</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P557</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="G8">
-        <v>7711</v>
+        <v>10292</v>
       </c>
       <c r="H8" s="2">
-        <v>43357</v>
+        <v>44435</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Kelly CRISPR Hif LV1 P8 Nx 24h</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>694.64</v>
+          <t>Kelly LV.1 Nx</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1348,12 +1317,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>P557</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>P8</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1368,35 +1332,71 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>RNA_89</t>
+          <t>RNA_10635</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Katharina</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="U8" s="2">
-        <v>43357</v>
+        <v>44435</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Katharina_2</t>
+          <t>Simon_5</t>
+        </is>
+      </c>
+      <c r="X8">
+        <v>10635</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>delHif1b6.1</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>delHif1b6.1</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>RNA_25</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S46</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S42</t>
+        </is>
+      </c>
+      <c r="AD8">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S42</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_01_S141_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_01_S141_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C9">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_01_S141_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_01_S141_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C10">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_01_S141_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_01_S141_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C11">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_02_S142_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_02_S142_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C12">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_02_S142_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_02_S142_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C13">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_02_S142_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_02_S142_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C14">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_13_S153_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_13_S153_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C15">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_13_S153_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_13_S153_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C16">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_13_S153_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_13_S153_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C17">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_14_S154_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_14_S154_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C18">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_14_S154_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_14_S154_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C19">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_14_S154_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_14_S154_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C20">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_21_S161_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_21_S161_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C21">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_21_S161_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_21_S161_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C22">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_21_S161_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_21_S161_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C23">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_22_S162_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_22_S162_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C24">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_22_S162_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_22_S162_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C25">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_22_S162_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_22_S162_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C26">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_29_S169_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_29_S169_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C27">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_29_S169_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_29_S169_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C28">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_29_S169_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_29_S169_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C29">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_30_S170_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_30_S170_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C30">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_30_S170_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_30_S170_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C31">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_30_S170_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_30_S170_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C32">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_35_S175_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_35_S175_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C33">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_35_S175_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_35_S175_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C34">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_35_S175_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_35_S175_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C35">
@@ -4540,42 +4540,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RNA_P2041_S58</t>
+          <t>RNA_P557_S34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10755_S58_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_078_S34_quant/quant.sf</t>
         </is>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RNA_P2041_10755_S58_L003</t>
+          <t>RNA_P557_078_S34</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="G36">
-        <v>10269</v>
+        <v>7696</v>
       </c>
       <c r="H36" s="2">
-        <v>44433</v>
+        <v>43356</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Kelly LV.1 Hx</t>
-        </is>
+          <t>Kelly CRISPR HifLV1 P7 Hx 24h</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>626.12</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -4589,12 +4592,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>P7</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>LV_1</t>
+          <t>LV1</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4604,66 +4612,35 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>RNA_10755</t>
+          <t>RNA_78</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Katharina</t>
         </is>
       </c>
       <c r="U36" s="2">
-        <v>44433</v>
+        <v>43356</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Simon_4</t>
-        </is>
-      </c>
-      <c r="X36">
-        <v>10755</v>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>del_Hif1a1.6</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>RNA_12</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S42</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S38</t>
-        </is>
-      </c>
-      <c r="AD36">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S58</t>
+          <t>Katharina_1</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
@@ -4675,42 +4652,45 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RNA_P2041_S43</t>
+          <t>RNA_P557_S38</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10636_S43_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_082_S38_quant/quant.sf</t>
         </is>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RNA_P2041_10636_S43_L003</t>
+          <t>RNA_P557_082_S38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="G37">
-        <v>10293</v>
+        <v>7702</v>
       </c>
       <c r="H37" s="2">
-        <v>44435</v>
+        <v>43356</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Kelly LV.1 Hx</t>
-        </is>
+          <t>Kelly CRISPR HifLV1 P7 Hx 24h</t>
+        </is>
+      </c>
+      <c r="J37">
+        <v>457.44</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -4724,12 +4704,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>P2041</t>
+          <t>P557</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>P7</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>LV_1</t>
+          <t>LV1</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4739,71 +4724,35 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>L003</t>
+          <t>L001</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>RNA_10636</t>
+          <t>RNA_82</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Katharina</t>
         </is>
       </c>
       <c r="U37" s="2">
-        <v>44435</v>
+        <v>43356</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Simon_5</t>
-        </is>
-      </c>
-      <c r="X37">
-        <v>10636</v>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>delHif1b9.1</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>delHif1b9.1</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>RNA_26</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S47</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S43</t>
-        </is>
-      </c>
-      <c r="AD37">
-        <v>43</v>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>RNA_P2041_S43</t>
+          <t>Katharina_1</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -4815,20 +4764,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RNA_P557_S34</t>
+          <t>RNA_P557_S42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_078_S34_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_086_S42_quant/quant.sf</t>
         </is>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RNA_P557_078_S34</t>
+          <t>RNA_P557_086_S42</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4842,18 +4791,18 @@
         </is>
       </c>
       <c r="G38">
-        <v>7696</v>
+        <v>7708</v>
       </c>
       <c r="H38" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Kelly CRISPR HifLV1 P7 Hx 24h</t>
+          <t>Kelly CRISPR HifLV1 P8 Hx 24h</t>
         </is>
       </c>
       <c r="J38">
-        <v>626.12</v>
+        <v>462.32</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -4872,7 +4821,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4892,12 +4841,12 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>RNA_78</t>
+          <t>RNA_86</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4906,16 +4855,16 @@
         </is>
       </c>
       <c r="U38" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Katharina_1</t>
+          <t>Katharina_2</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -4927,20 +4876,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RNA_P557_S38</t>
+          <t>RNA_P557_S46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_082_S38_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_090_S46_quant/quant.sf</t>
         </is>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RNA_P557_082_S38</t>
+          <t>RNA_P557_090_S46</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4954,18 +4903,18 @@
         </is>
       </c>
       <c r="G39">
-        <v>7702</v>
+        <v>7714</v>
       </c>
       <c r="H39" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Kelly CRISPR HifLV1 P7 Hx 24h</t>
+          <t>Kelly CRISPR HifLV1 P8 Hx 24h</t>
         </is>
       </c>
       <c r="J39">
-        <v>457.44</v>
+        <v>349.06</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4984,7 +4933,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5004,12 +4953,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>RNA_82</t>
+          <t>RNA_90</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -5018,16 +4967,16 @@
         </is>
       </c>
       <c r="U39" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Katharina_1</t>
+          <t>Katharina_2</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -5039,45 +4988,42 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RNA_P557_S42</t>
+          <t>RNA_P2041_S58</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_086_S42_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10755_S58_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RNA_P557_086_S42</t>
+          <t>RNA_P2041_10755_S58_L003</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>P557</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="G40">
-        <v>7708</v>
+        <v>10269</v>
       </c>
       <c r="H40" s="2">
-        <v>43357</v>
+        <v>44433</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Kelly CRISPR HifLV1 P8 Hx 24h</t>
-        </is>
-      </c>
-      <c r="J40">
-        <v>462.32</v>
+          <t>Kelly LV.1 Hx</t>
+        </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5091,12 +5037,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>P557</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>P8</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5111,7 +5052,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -5121,25 +5062,56 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>RNA_86</t>
+          <t>RNA_10755</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Katharina</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="U40" s="2">
-        <v>43357</v>
+        <v>44433</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Katharina_2</t>
+          <t>Simon_4</t>
+        </is>
+      </c>
+      <c r="X40">
+        <v>10755</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>del_Hif1a1.6</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>RNA_12</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S42</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S38</t>
+        </is>
+      </c>
+      <c r="AD40">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S58</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -5151,45 +5123,42 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RNA_P557_S46</t>
+          <t>RNA_P2041_S43</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_090_S46_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10636_S43_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RNA_P557_090_S46</t>
+          <t>RNA_P2041_10636_S43_L003</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>P557</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="G41">
-        <v>7714</v>
+        <v>10293</v>
       </c>
       <c r="H41" s="2">
-        <v>43357</v>
+        <v>44435</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Kelly CRISPR HifLV1 P8 Hx 24h</t>
-        </is>
-      </c>
-      <c r="J41">
-        <v>349.06</v>
+          <t>Kelly LV.1 Hx</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5203,12 +5172,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>P557</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>P8</t>
+          <t>P2041</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5223,35 +5187,71 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>L001</t>
+          <t>L003</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>RNA_90</t>
+          <t>RNA_10636</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Katharina</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="U41" s="2">
-        <v>43357</v>
+        <v>44435</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Katharina_2</t>
+          <t>Simon_5</t>
+        </is>
+      </c>
+      <c r="X41">
+        <v>10636</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>delHif1b9.1</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>delHif1b9.1</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>RNA_26</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S47</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S43</t>
+        </is>
+      </c>
+      <c r="AD41">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>RNA_P2041_S43</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_07_S147_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_07_S147_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C42">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_07_S147_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_07_S147_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C43">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_07_S147_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_07_S147_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C44">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_08_S148_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_08_S148_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C45">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_08_S148_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_08_S148_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C46">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_08_S148_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_08_S148_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C47">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_17_S157_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_17_S157_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C48">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_17_S157_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_17_S157_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C49">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_17_S157_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_17_S157_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C50">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_18_S158_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_18_S158_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C51">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_18_S158_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_18_S158_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C52">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_18_S158_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_18_S158_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C53">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_25_S165_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_25_S165_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C54">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_25_S165_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_25_S165_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C55">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_25_S165_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_25_S165_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C56">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_26_S166_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_26_S166_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C57">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_26_S166_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_26_S166_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C58">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_26_S166_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_26_S166_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C59">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_40_S180_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_40_S180_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C60">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_40_S180_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_40_S180_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C61">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_40_S180_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_40_S180_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C62">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_41_S181_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_41_S181_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C63">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_41_S181_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_41_S181_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C64">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_41_S181_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_41_S181_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C65">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_46_S186_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_46_S186_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C66">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_46_S186_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_46_S186_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C67">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_46_S186_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_46_S186_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C68">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10637_S44_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10637_S44_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C69">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_03_S143_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_03_S143_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C70">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_03_S143_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_03_S143_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C71">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_03_S143_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_03_S143_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C72">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_04_S144_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_04_S144_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C73">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_04_S144_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_04_S144_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C74">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_04_S144_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_04_S144_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C75">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_15_S155_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_15_S155_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C76">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_15_S155_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_15_S155_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C77">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_15_S155_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_15_S155_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C78">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_23_S163_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_23_S163_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C79">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_23_S163_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_23_S163_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C80">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_23_S163_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_23_S163_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C81">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_31_S171_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_31_S171_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C82">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_31_S171_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_31_S171_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C83">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_31_S171_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_31_S171_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C84">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_32_S172_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_32_S172_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C85">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_32_S172_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_32_S172_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C86">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_32_S172_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_32_S172_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C87">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_36_S176_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_36_S176_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C88">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_36_S176_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_36_S176_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C89">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_36_S176_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_36_S176_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C90">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_37_S177_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_37_S177_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C91">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_37_S177_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_37_S177_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C92">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_37_S177_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_37_S177_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C93">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_079_S35_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_079_S35_quant/quant.sf</t>
         </is>
       </c>
       <c r="C94">
@@ -11436,7 +11436,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_083_S39_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_083_S39_quant/quant.sf</t>
         </is>
       </c>
       <c r="C95">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_087_S43_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_087_S43_quant/quant.sf</t>
         </is>
       </c>
       <c r="C96">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_091_S47_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_091_S47_quant/quant.sf</t>
         </is>
       </c>
       <c r="C97">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10638_S45_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10638_S45_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C98">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_09_S149_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_09_S149_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C99">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_09_S149_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_09_S149_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C100">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_09_S149_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_09_S149_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C101">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_10_S150_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_10_S150_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C102">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_10_S150_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_10_S150_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C103">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_10_S150_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_10_S150_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C104">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_19_S159_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_19_S159_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C105">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_19_S159_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_19_S159_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C106">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_19_S159_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_19_S159_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C107">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_27_S167_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_27_S167_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C108">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_27_S167_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_27_S167_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C109">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_27_S167_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_27_S167_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C110">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_42_S182_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_42_S182_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C111">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_42_S182_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_42_S182_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C112">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_42_S182_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_42_S182_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C113">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_43_S183_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_43_S183_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C114">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_43_S183_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_43_S183_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C115">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_43_S183_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_43_S183_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C116">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_47_S187_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_47_S187_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C117">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_47_S187_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_47_S187_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C118">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_47_S187_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_47_S187_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C119">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_48_S188_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_48_S188_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C120">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_48_S188_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_48_S188_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C121">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_48_S188_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_48_S188_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C122">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10640_S46_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10640_S46_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C123">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_05_S145_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_05_S145_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C124">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_05_S145_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_05_S145_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C125">
@@ -15068,7 +15068,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_05_S145_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_05_S145_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C126">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_06_S146_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_06_S146_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C127">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_06_S146_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_06_S146_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C128">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_06_S146_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_06_S146_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C129">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_16_S156_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_16_S156_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C130">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_16_S156_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_16_S156_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C131">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_16_S156_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_16_S156_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C132">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_24_S164_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_24_S164_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C133">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_24_S164_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_24_S164_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C134">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_24_S164_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_24_S164_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C135">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_33_S173_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_33_S173_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C136">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_33_S173_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_33_S173_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C137">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_33_S173_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_33_S173_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C138">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_34_S174_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_34_S174_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C139">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_34_S174_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_34_S174_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C140">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_34_S174_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_34_S174_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C141">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_38_S178_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_38_S178_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C142">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_38_S178_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_38_S178_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C143">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_38_S178_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_38_S178_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C144">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_39_S179_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_39_S179_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C145">
@@ -17388,7 +17388,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_39_S179_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_39_S179_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C146">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_39_S179_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_39_S179_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C147">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_080_S36_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_080_S36_quant/quant.sf</t>
         </is>
       </c>
       <c r="C148">
@@ -17732,7 +17732,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_084_S40_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_084_S40_quant/quant.sf</t>
         </is>
       </c>
       <c r="C149">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_088_S44_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_088_S44_quant/quant.sf</t>
         </is>
       </c>
       <c r="C150">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/CH_HS_KK_092_S48_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/CH_HS_KK_092_S48_quant/quant.sf</t>
         </is>
       </c>
       <c r="C151">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_11_S151_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_11_S151_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C152">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_11_S151_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_11_S151_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C153">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_11_S151_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_11_S151_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C154">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_12_S152_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_12_S152_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C155">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_12_S152_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_12_S152_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C156">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_12_S152_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_12_S152_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C157">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_20_S160_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_20_S160_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C158">
@@ -18880,7 +18880,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_20_S160_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_20_S160_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C159">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_20_S160_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_20_S160_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C160">
@@ -19112,7 +19112,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_28_S168_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_28_S168_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C161">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_28_S168_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_28_S168_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C162">
@@ -19344,7 +19344,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_28_S168_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_28_S168_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C163">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_44_S184_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_44_S184_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C164">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_44_S184_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_44_S184_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C165">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_44_S184_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_44_S184_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C166">
@@ -19808,7 +19808,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_45_S185_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_45_S185_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C167">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_45_S185_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_45_S185_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C168">
@@ -20040,7 +20040,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_45_S185_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_45_S185_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C169">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_49_S189_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_49_S189_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C170">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_49_S189_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_49_S189_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C171">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_49_S189_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_49_S189_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C172">
@@ -20504,7 +20504,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_50_S190_L006_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_50_S190_L006_quant/quant.sf</t>
         </is>
       </c>
       <c r="C173">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_50_S190_L007_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_50_S190_L007_quant/quant.sf</t>
         </is>
       </c>
       <c r="C174">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P3302_01_P3302_RNA_50_S190_L008_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P3302_01_P3302_RNA_50_S190_L008_quant/quant.sf</t>
         </is>
       </c>
       <c r="C175">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10750_S53_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10750_S53_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C176">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10621_S38_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10621_S38_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C177">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10631_S40_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10631_S40_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C178">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10625_S39_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10625_S39_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C179">
@@ -21382,7 +21382,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10745_S48_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10745_S48_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C180">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10746_S49_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10746_S49_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C181">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10754_S57_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10754_S57_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C182">
@@ -21787,7 +21787,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10748_S51_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10748_S51_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C183">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10751_S54_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10751_S54_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C184">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10632_S41_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10632_S41_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C185">
@@ -22182,7 +22182,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10744_S47_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10744_S47_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C186">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10747_S50_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10747_S50_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C187">
@@ -22442,7 +22442,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10753_S56_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10753_S56_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C188">
@@ -22582,7 +22582,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants/P2041_10749_S52_L003_quant/quant.sf</t>
+          <t>/mnt/s/AG/AG-Scholz-NGS/Daten/Simon/RNA-Seq_Kelly_all/quants2/P2041_10749_S52_L003_quant/quant.sf</t>
         </is>
       </c>
       <c r="C189">
